--- a/와인추천솔루션/손군집화_카테고리별_v2.xlsx
+++ b/와인추천솔루션/손군집화_카테고리별_v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cakd7\cakd7_class\와인추천솔루션\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54F23E1-6F46-4D99-9D04-2F462B014B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A8EB54-5A39-4B4B-BAB8-079C23AEB970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6D702BEE-D183-4681-A5DF-CDA267CA4C3C}"/>
+    <workbookView xWindow="-1860" yWindow="3330" windowWidth="14400" windowHeight="12390" activeTab="3" xr2:uid="{6D702BEE-D183-4681-A5DF-CDA267CA4C3C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="디테일_정리" sheetId="2" r:id="rId3"/>
     <sheet name="디테일_최종" sheetId="5" r:id="rId4"/>
     <sheet name="디테일_최종 정리" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="144">
   <si>
     <t>스파클링</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -582,7 +583,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CLU</t>
+    <t>cluster_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cluster_label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -662,7 +671,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,6 +786,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -792,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,12 +889,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -898,12 +907,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3195,7 +3227,7 @@
       <c r="M29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="N29" s="41" t="s">
+      <c r="N29" s="39" t="s">
         <v>55</v>
       </c>
       <c r="P29" s="27"/>
@@ -3221,7 +3253,7 @@
       <c r="M30" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N30" s="41"/>
+      <c r="N30" s="39"/>
       <c r="P30" s="25"/>
       <c r="Q30" s="6" t="s">
         <v>52</v>
@@ -3242,7 +3274,7 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L31" s="9"/>
-      <c r="N31" s="42" t="s">
+      <c r="N31" s="40" t="s">
         <v>51</v>
       </c>
       <c r="O31" s="22"/>
@@ -3271,7 +3303,7 @@
       <c r="M32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="N32" s="42"/>
+      <c r="N32" s="40"/>
       <c r="O32" s="22"/>
       <c r="P32" s="21"/>
       <c r="Q32" s="6" t="s">
@@ -3298,7 +3330,7 @@
       <c r="M33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N33" s="43" t="s">
+      <c r="N33" s="41" t="s">
         <v>44</v>
       </c>
       <c r="P33" s="20" t="s">
@@ -3323,7 +3355,7 @@
     </row>
     <row r="34" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L34" s="9"/>
-      <c r="N34" s="43"/>
+      <c r="N34" s="41"/>
       <c r="P34" s="18"/>
       <c r="Q34" s="6" t="s">
         <v>41</v>
@@ -3349,7 +3381,7 @@
       <c r="M35" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N35" s="44" t="s">
+      <c r="N35" s="42" t="s">
         <v>37</v>
       </c>
       <c r="P35" s="17" t="s">
@@ -3377,7 +3409,7 @@
       <c r="M36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N36" s="44"/>
+      <c r="N36" s="42"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="6" t="s">
         <v>33</v>
@@ -3426,7 +3458,7 @@
     </row>
     <row r="38" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L38" s="9"/>
-      <c r="N38" s="45" t="s">
+      <c r="N38" s="43" t="s">
         <v>26</v>
       </c>
       <c r="P38" s="12"/>
@@ -3449,7 +3481,7 @@
     </row>
     <row r="39" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L39" s="9"/>
-      <c r="N39" s="45"/>
+      <c r="N39" s="43"/>
       <c r="P39" s="10"/>
       <c r="Q39" s="6" t="s">
         <v>23</v>
@@ -3470,7 +3502,7 @@
     </row>
     <row r="40" spans="12:22" x14ac:dyDescent="0.25">
       <c r="L40" s="9"/>
-      <c r="N40" s="45"/>
+      <c r="N40" s="43"/>
       <c r="P40" s="7" t="s">
         <v>21</v>
       </c>
@@ -4482,13 +4514,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C10D143-51D2-40BF-B373-E1DBD005CCE8}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="O14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="T29" sqref="Q29:T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
+    <col min="1" max="1" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
@@ -5972,7 +6005,7 @@
       <c r="U29" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V29" s="41" t="s">
+      <c r="V29" s="39" t="s">
         <v>127</v>
       </c>
       <c r="W29" s="4" t="s">
@@ -6013,7 +6046,7 @@
       <c r="U30" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V30" s="41"/>
+      <c r="V30" s="39"/>
       <c r="W30" s="1" t="s">
         <v>53</v>
       </c>
@@ -6088,7 +6121,7 @@
       <c r="U32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V32" s="43" t="s">
+      <c r="V32" s="41" t="s">
         <v>135</v>
       </c>
       <c r="W32" s="4" t="s">
@@ -6126,7 +6159,7 @@
       <c r="U33" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V33" s="43"/>
+      <c r="V33" s="41"/>
       <c r="W33" s="4" t="s">
         <v>134</v>
       </c>
@@ -6140,22 +6173,22 @@
       <c r="P34" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="Q34" s="39" t="s">
+      <c r="Q34" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="R34" s="40" t="s">
+      <c r="R34" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="39">
-        <v>3</v>
-      </c>
-      <c r="T34" s="39" t="s">
+      <c r="S34" s="47">
+        <v>3</v>
+      </c>
+      <c r="T34" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="U34" s="39" t="s">
+      <c r="U34" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="V34" s="48" t="s">
+      <c r="V34" s="45" t="s">
         <v>136</v>
       </c>
       <c r="W34" s="1" t="s">
@@ -6169,43 +6202,43 @@
       <c r="L35" s="9"/>
       <c r="N35" s="1"/>
       <c r="P35" s="15"/>
-      <c r="Q35" s="39" t="s">
+      <c r="Q35" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="R35" s="39">
+      <c r="R35" s="47">
         <v>5</v>
       </c>
-      <c r="S35" s="39">
-        <v>3</v>
-      </c>
-      <c r="T35" s="39">
-        <v>2</v>
-      </c>
-      <c r="U35" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="V35" s="48"/>
+      <c r="S35" s="47">
+        <v>3</v>
+      </c>
+      <c r="T35" s="47">
+        <v>2</v>
+      </c>
+      <c r="U35" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="V35" s="45"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L36" s="9"/>
       <c r="N36" s="1"/>
       <c r="P36" s="23"/>
-      <c r="Q36" s="39" t="s">
+      <c r="Q36" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="R36" s="39" t="s">
+      <c r="R36" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="S36" s="39">
-        <v>3</v>
-      </c>
-      <c r="T36" s="39" t="s">
+      <c r="S36" s="47">
+        <v>3</v>
+      </c>
+      <c r="T36" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="U36" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="V36" s="48"/>
+      <c r="U36" s="47" t="s">
+        <v>2</v>
+      </c>
+      <c r="V36" s="45"/>
       <c r="W36" s="4" t="s">
         <v>3</v>
       </c>
@@ -6257,7 +6290,7 @@
       <c r="U38" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="V38" s="47" t="s">
+      <c r="V38" s="46" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6280,7 +6313,7 @@
       <c r="U39" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V39" s="47"/>
+      <c r="V39" s="46"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L40" s="9"/>
@@ -6303,7 +6336,7 @@
       <c r="U40" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="V40" s="47"/>
+      <c r="V40" s="46"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="N42" s="1"/>
@@ -6316,6 +6349,12 @@
       <c r="V42" s="4"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H43" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="M43" s="29" t="s">
+        <v>126</v>
+      </c>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="Q43" s="6"/>
@@ -6327,6 +6366,12 @@
       <c r="W43" s="4"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H44" s="55" t="s">
+        <v>127</v>
+      </c>
+      <c r="M44" s="55" t="s">
+        <v>127</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="Q44" s="6"/>
@@ -6334,12 +6379,16 @@
       <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
-      <c r="V44" s="46"/>
+      <c r="V44" s="44"/>
       <c r="W44" s="4"/>
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H45" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="M45" s="55"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="Q45" s="6"/>
@@ -6347,9 +6396,15 @@
       <c r="S45" s="6"/>
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
-      <c r="V45" s="46"/>
+      <c r="V45" s="44"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H46" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="M46" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
       <c r="Q46" s="6"/>
@@ -6359,6 +6414,12 @@
       <c r="U46" s="6"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H47" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="M47" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="Q47" s="6"/>
@@ -6366,10 +6427,14 @@
       <c r="S47" s="6"/>
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
-      <c r="V47" s="46"/>
+      <c r="V47" s="44"/>
       <c r="W47" s="4"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="H48" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="M48" s="20"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
       <c r="Q48" s="6"/>
@@ -6377,11 +6442,17 @@
       <c r="S48" s="6"/>
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
-      <c r="V48" s="46"/>
+      <c r="V48" s="44"/>
       <c r="W48" s="4"/>
       <c r="X48" s="4"/>
     </row>
-    <row r="49" spans="14:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="H49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>136</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="Q49" s="6"/>
@@ -6389,26 +6460,31 @@
       <c r="S49" s="6"/>
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
-      <c r="V49" s="46"/>
-    </row>
-    <row r="50" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="V49" s="44"/>
+    </row>
+    <row r="50" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="M50" s="17"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
-      <c r="V50" s="46"/>
-    </row>
-    <row r="51" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="V50" s="44"/>
+    </row>
+    <row r="51" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="M51" s="17"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
-      <c r="V51" s="46"/>
+      <c r="V51" s="44"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="14:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="M52" s="36" t="s">
+        <v>132</v>
+      </c>
       <c r="Q52" s="11"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
@@ -6418,32 +6494,38 @@
       <c r="W52" s="4"/>
       <c r="X52" s="4"/>
     </row>
-    <row r="53" spans="14:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="M53" s="46" t="s">
+        <v>140</v>
+      </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
-      <c r="V53" s="46"/>
-    </row>
-    <row r="54" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="V53" s="44"/>
+    </row>
+    <row r="54" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="M54" s="46"/>
       <c r="Q54" s="6"/>
       <c r="R54" s="6"/>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
-      <c r="V54" s="46"/>
-    </row>
-    <row r="55" spans="14:24" x14ac:dyDescent="0.25">
+      <c r="V54" s="44"/>
+    </row>
+    <row r="55" spans="8:24" x14ac:dyDescent="0.25">
+      <c r="M55" s="46"/>
       <c r="Q55" s="6"/>
       <c r="R55" s="6"/>
       <c r="S55" s="6"/>
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
-      <c r="V55" s="46"/>
+      <c r="V55" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="M53:M55"/>
     <mergeCell ref="V49:V51"/>
     <mergeCell ref="V53:V55"/>
     <mergeCell ref="V29:V30"/>
@@ -6455,519 +6537,520 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28A725D5-82A3-4744-89A5-BE0012F2F0FD}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="34" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="49">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="29" t="s">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="49">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="29" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="49">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="49">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="49">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="21" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="49">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
-        <v>2</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="21" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="49">
+        <v>2</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="49">
+        <v>2</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="19" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="49">
+        <v>2</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="49">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="19" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="49">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
-        <v>1</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-      <c r="F13" s="16" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="49">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
-        <v>1</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
-      <c r="F14" s="16" t="s">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="49">
+        <v>1</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>3</v>
+      </c>
+      <c r="G15" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="16" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="49">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>3</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="49">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
-      </c>
-      <c r="F17" s="8" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>3</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="16" t="s">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="49">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="26" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="49">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2</v>
+      </c>
+      <c r="G20" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="26" t="s">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="49">
+        <v>1</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="36" t="s">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="49">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="36" t="s">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="49">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="31">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="36" t="s">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="49">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="36" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="31">
-        <v>2</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="8" t="s">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="49">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="31">
-        <v>2</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="8" t="s">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="49">
+        <v>2</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>2</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>2</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -6975,4 +7058,1058 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA85866-4314-4675-BD0C-61BF72BA6A35}">
+  <dimension ref="B3:Q27"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="21.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="H3" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="L3" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="49">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L4" s="31">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="49">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="31">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="49">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="31">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="49">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2</v>
+      </c>
+      <c r="E7" s="6">
+        <v>2</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>2</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L7" s="31">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="49">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>2</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L8" s="31">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="49">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6">
+        <v>2</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>2</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L9" s="31">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="49">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6">
+        <v>2</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="31">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="49">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>5</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="31">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="49">
+        <v>2</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" s="31">
+        <v>2</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="49">
+        <v>2</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>4</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="31">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>2</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="49">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2</v>
+      </c>
+      <c r="G14" s="6">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6">
+        <v>4</v>
+      </c>
+      <c r="I14" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="31">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>2</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="49">
+        <v>2</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>2</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>3</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="31">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="49">
+        <v>2</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>2</v>
+      </c>
+      <c r="E16" s="6">
+        <v>2</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2</v>
+      </c>
+      <c r="G16" s="6">
+        <v>8</v>
+      </c>
+      <c r="H16" s="6">
+        <v>4</v>
+      </c>
+      <c r="I16" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="L16" s="31">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="49">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <v>3</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="L17" s="31">
+        <v>2</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="49">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>1</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L18" s="31">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="49">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>10</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L19" s="31">
+        <v>2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="49">
+        <v>2</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>3</v>
+      </c>
+      <c r="H20" s="6">
+        <v>5</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="31">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="49">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2</v>
+      </c>
+      <c r="D21" s="6">
+        <v>2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="6">
+        <v>57</v>
+      </c>
+      <c r="H21" s="6">
+        <v>6</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L21" s="31">
+        <v>2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="49">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2</v>
+      </c>
+      <c r="D22" s="6">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6">
+        <v>10</v>
+      </c>
+      <c r="H22" s="6">
+        <v>6</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L22" s="31">
+        <v>2</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>2</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="49">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>2</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6">
+        <v>154</v>
+      </c>
+      <c r="H23" s="6">
+        <v>5</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" s="31">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="49">
+        <v>2</v>
+      </c>
+      <c r="C24" s="6">
+        <v>2</v>
+      </c>
+      <c r="D24" s="6">
+        <v>2</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>16</v>
+      </c>
+      <c r="H24" s="6">
+        <v>6</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L24" s="31">
+        <v>2</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>2</v>
+      </c>
+      <c r="O24" s="1">
+        <v>2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="49">
+        <v>2</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>3</v>
+      </c>
+      <c r="G25" s="6">
+        <v>9</v>
+      </c>
+      <c r="H25" s="6">
+        <v>6</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="31">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="49">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" s="31">
+        <v>3</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="49">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>2</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>1</v>
+      </c>
+      <c r="H27" s="6">
+        <v>7</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="L27" s="31">
+        <v>3</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L4:Q27">
+    <sortCondition ref="L4:L27"/>
+    <sortCondition ref="M4:M27"/>
+    <sortCondition ref="N4:N27"/>
+    <sortCondition ref="O4:O27"/>
+    <sortCondition ref="P4:P27"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>